--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32440" yWindow="6020" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,6 +377,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -406,18 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,174 +732,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD EMPN"/>
-      <sheetName val="Filtered OECD Data"/>
-      <sheetName val="U.S. Data for ISIC Splits"/>
-      <sheetName val="BEbIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="38">
-          <cell r="B38">
-            <v>2253</v>
-          </cell>
-          <cell r="C38">
-            <v>262.60000000000002</v>
-          </cell>
-          <cell r="D38">
-            <v>135.4</v>
-          </cell>
-          <cell r="E38">
-            <v>373</v>
-          </cell>
-          <cell r="F38">
-            <v>1783</v>
-          </cell>
-          <cell r="G38">
-            <v>442</v>
-          </cell>
-          <cell r="H38">
-            <v>399</v>
-          </cell>
-          <cell r="I38">
-            <v>842</v>
-          </cell>
-          <cell r="J38">
-            <v>111</v>
-          </cell>
-          <cell r="K38">
-            <v>820</v>
-          </cell>
-          <cell r="L38">
-            <v>690</v>
-          </cell>
-          <cell r="M38">
-            <v>412</v>
-          </cell>
-          <cell r="N38">
-            <v>395</v>
-          </cell>
-          <cell r="O38">
-            <v>1483</v>
-          </cell>
-          <cell r="P38">
-            <v>1058</v>
-          </cell>
-          <cell r="Q38">
-            <v>382</v>
-          </cell>
-          <cell r="R38">
-            <v>1126</v>
-          </cell>
-          <cell r="S38">
-            <v>922</v>
-          </cell>
-          <cell r="T38">
-            <v>695</v>
-          </cell>
-          <cell r="U38">
-            <v>1355.5</v>
-          </cell>
-          <cell r="V38">
-            <v>975</v>
-          </cell>
-          <cell r="W38">
-            <v>8240</v>
-          </cell>
-          <cell r="X38">
-            <v>23893.3</v>
-          </cell>
-          <cell r="Y38">
-            <v>5988</v>
-          </cell>
-          <cell r="Z38">
-            <v>13295</v>
-          </cell>
-          <cell r="AA38">
-            <v>1686.9</v>
-          </cell>
-          <cell r="AB38">
-            <v>823.1</v>
-          </cell>
-          <cell r="AC38">
-            <v>2455</v>
-          </cell>
-          <cell r="AD38">
-            <v>6300</v>
-          </cell>
-          <cell r="AE38">
-            <v>1958</v>
-          </cell>
-          <cell r="AF38">
-            <v>19863</v>
-          </cell>
-          <cell r="AG38">
-            <v>13365</v>
-          </cell>
-          <cell r="AH38">
-            <v>14114</v>
-          </cell>
-          <cell r="AI38">
-            <v>19522</v>
-          </cell>
-          <cell r="AJ38">
-            <v>8780.2000000000007</v>
-          </cell>
-          <cell r="AK38">
-            <v>329.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6">
-            <v>64800</v>
-          </cell>
-          <cell r="E6">
-            <v>185400</v>
-          </cell>
-          <cell r="G6">
-            <v>531100</v>
-          </cell>
-          <cell r="H6">
-            <v>284200</v>
-          </cell>
-          <cell r="J6">
-            <v>93600</v>
-          </cell>
-          <cell r="K6">
-            <v>310900</v>
-          </cell>
-          <cell r="M6">
-            <v>209500</v>
-          </cell>
-          <cell r="N6">
-            <v>182400</v>
-          </cell>
-          <cell r="P6">
-            <v>397500</v>
-          </cell>
-          <cell r="Q6">
-            <v>119700</v>
-          </cell>
-          <cell r="R6">
-            <v>50300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1187,6 +1017,9 @@
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="46" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1366,8 +1199,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="41"/>
-    <col width="9.1640625" customWidth="1" style="6" min="42" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1389,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="39" t="n"/>
+      <c r="O3" s="39" t="n"/>
+      <c r="P3" s="39" t="n"/>
+      <c r="Q3" s="39" t="n"/>
+      <c r="R3" s="39" t="n"/>
+      <c r="S3" s="39" t="n"/>
+      <c r="T3" s="39" t="n"/>
+      <c r="U3" s="39" t="n"/>
+      <c r="V3" s="39" t="n"/>
+      <c r="W3" s="39" t="n"/>
+      <c r="X3" s="39" t="n"/>
+      <c r="Y3" s="39" t="n"/>
+      <c r="Z3" s="39" t="n"/>
+      <c r="AA3" s="39" t="n"/>
+      <c r="AB3" s="39" t="n"/>
+      <c r="AC3" s="39" t="n"/>
+      <c r="AD3" s="39" t="n"/>
+      <c r="AE3" s="39" t="n"/>
+      <c r="AF3" s="39" t="n"/>
+      <c r="AG3" s="39" t="n"/>
+      <c r="AH3" s="39" t="n"/>
+      <c r="AI3" s="39" t="n"/>
+      <c r="AJ3" s="39" t="n"/>
+      <c r="AK3" s="39" t="n"/>
+      <c r="AL3" s="37" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="31" t="n"/>
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="39" t="n"/>
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="39" t="n"/>
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="39" t="n"/>
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="39" t="n"/>
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="39" t="n"/>
+      <c r="N4" s="39" t="n"/>
+      <c r="O4" s="39" t="n"/>
+      <c r="P4" s="39" t="n"/>
+      <c r="Q4" s="39" t="n"/>
+      <c r="R4" s="39" t="n"/>
+      <c r="S4" s="39" t="n"/>
+      <c r="T4" s="39" t="n"/>
+      <c r="U4" s="39" t="n"/>
+      <c r="V4" s="39" t="n"/>
+      <c r="W4" s="39" t="n"/>
+      <c r="X4" s="39" t="n"/>
+      <c r="Y4" s="39" t="n"/>
+      <c r="Z4" s="39" t="n"/>
+      <c r="AA4" s="39" t="n"/>
+      <c r="AB4" s="39" t="n"/>
+      <c r="AC4" s="39" t="n"/>
+      <c r="AD4" s="39" t="n"/>
+      <c r="AE4" s="39" t="n"/>
+      <c r="AF4" s="39" t="n"/>
+      <c r="AG4" s="39" t="n"/>
+      <c r="AH4" s="39" t="n"/>
+      <c r="AI4" s="39" t="n"/>
+      <c r="AJ4" s="39" t="n"/>
+      <c r="AK4" s="39" t="n"/>
+      <c r="AL4" s="37" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="31" t="n"/>
+      <c r="D5" s="39" t="n"/>
+      <c r="E5" s="39" t="n"/>
+      <c r="F5" s="39" t="n"/>
+      <c r="G5" s="39" t="n"/>
+      <c r="H5" s="39" t="n"/>
+      <c r="I5" s="39" t="n"/>
+      <c r="J5" s="39" t="n"/>
+      <c r="K5" s="39" t="n"/>
+      <c r="L5" s="39" t="n"/>
+      <c r="M5" s="39" t="n"/>
+      <c r="N5" s="39" t="n"/>
+      <c r="O5" s="39" t="n"/>
+      <c r="P5" s="39" t="n"/>
+      <c r="Q5" s="39" t="n"/>
+      <c r="R5" s="39" t="n"/>
+      <c r="S5" s="39" t="n"/>
+      <c r="T5" s="39" t="n"/>
+      <c r="U5" s="39" t="n"/>
+      <c r="V5" s="39" t="n"/>
+      <c r="W5" s="39" t="n"/>
+      <c r="X5" s="39" t="n"/>
+      <c r="Y5" s="39" t="n"/>
+      <c r="Z5" s="39" t="n"/>
+      <c r="AA5" s="39" t="n"/>
+      <c r="AB5" s="39" t="n"/>
+      <c r="AC5" s="39" t="n"/>
+      <c r="AD5" s="39" t="n"/>
+      <c r="AE5" s="39" t="n"/>
+      <c r="AF5" s="39" t="n"/>
+      <c r="AG5" s="39" t="n"/>
+      <c r="AH5" s="39" t="n"/>
+      <c r="AI5" s="39" t="n"/>
+      <c r="AJ5" s="39" t="n"/>
+      <c r="AK5" s="39" t="n"/>
+      <c r="AL5" s="37" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="38" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="31" t="n"/>
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="39" t="n"/>
+      <c r="F6" s="39" t="n"/>
+      <c r="G6" s="39" t="n"/>
+      <c r="H6" s="39" t="n"/>
+      <c r="I6" s="39" t="n"/>
+      <c r="J6" s="39" t="n"/>
+      <c r="K6" s="39" t="n"/>
+      <c r="L6" s="39" t="n"/>
+      <c r="M6" s="39" t="n"/>
+      <c r="N6" s="39" t="n"/>
+      <c r="O6" s="39" t="n"/>
+      <c r="P6" s="39" t="n"/>
+      <c r="Q6" s="39" t="n"/>
+      <c r="R6" s="39" t="n"/>
+      <c r="S6" s="39" t="n"/>
+      <c r="T6" s="39" t="n"/>
+      <c r="U6" s="39" t="n"/>
+      <c r="V6" s="39" t="n"/>
+      <c r="W6" s="39" t="n"/>
+      <c r="X6" s="39" t="n"/>
+      <c r="Y6" s="39" t="n"/>
+      <c r="Z6" s="39" t="n"/>
+      <c r="AA6" s="39" t="n"/>
+      <c r="AB6" s="39" t="n"/>
+      <c r="AC6" s="39" t="n"/>
+      <c r="AD6" s="39" t="n"/>
+      <c r="AE6" s="39" t="n"/>
+      <c r="AF6" s="39" t="n"/>
+      <c r="AG6" s="39" t="n"/>
+      <c r="AH6" s="39" t="n"/>
+      <c r="AI6" s="39" t="n"/>
+      <c r="AJ6" s="39" t="n"/>
+      <c r="AK6" s="39" t="n"/>
+      <c r="AL6" s="37" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="37" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2227,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="37" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="42" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="45" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="37" t="n"/>
+      <c r="E4" s="45" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="37" t="n"/>
+      <c r="G4" s="45" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="37" t="n"/>
+      <c r="I4" s="45" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="37" t="n"/>
+      <c r="K4" s="45" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="37" t="n"/>
+      <c r="M4" s="45" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="37" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="42" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="37" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3626,12 +3459,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -3671,12 +3504,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -3686,22 +3519,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -3741,17 +3574,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="44" t="inlineStr">
+      <c r="AA1" s="34" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -3839,130 +3672,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1417326000</v>
-      </c>
-      <c r="C2" s="42" t="n">
-        <v>6593000</v>
-      </c>
-      <c r="D2" s="43" t="n">
-        <v>53673823.15880948</v>
+        <v>107741000</v>
+      </c>
+      <c r="C2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33" t="n">
+        <v>37108000</v>
       </c>
       <c r="E2" t="n">
-        <v>1233100176.841191</v>
+        <v>37108000</v>
       </c>
       <c r="F2" t="n">
-        <v>73046000</v>
+        <v>8564000</v>
       </c>
       <c r="G2" t="n">
-        <v>1059944000</v>
+        <v>279230000</v>
       </c>
       <c r="H2" t="n">
-        <v>85628000</v>
+        <v>196810000</v>
       </c>
       <c r="I2" t="n">
-        <v>268947000</v>
+        <v>108652000</v>
       </c>
       <c r="J2" t="n">
-        <v>530340000</v>
+        <v>216856000</v>
       </c>
       <c r="K2" t="n">
-        <v>21431000</v>
-      </c>
-      <c r="L2" s="42" t="n">
-        <v>362463416.8992642</v>
-      </c>
-      <c r="M2" s="43" t="n">
-        <v>398574583.1007358</v>
+        <v>32691000</v>
+      </c>
+      <c r="L2" s="32" t="n">
+        <v>117689761.5797172</v>
+      </c>
+      <c r="M2" s="33" t="n">
+        <v>153221238.4202828</v>
       </c>
       <c r="N2" t="n">
-        <v>353601000</v>
-      </c>
-      <c r="O2" s="42" t="n">
-        <v>87347024.51612903</v>
-      </c>
-      <c r="P2" s="43" t="n">
-        <v>447480975.483871</v>
-      </c>
-      <c r="Q2" s="42" t="n">
-        <v>59561472.85626157</v>
-      </c>
-      <c r="R2" s="43" t="n">
-        <v>261733527.1437384</v>
+        <v>379951000</v>
+      </c>
+      <c r="O2" s="32" t="n">
+        <v>50881486.8887314</v>
+      </c>
+      <c r="P2" s="33" t="n">
+        <v>102852513.1112686</v>
+      </c>
+      <c r="Q2" s="32" t="n">
+        <v>186776000</v>
+      </c>
+      <c r="R2" s="33" t="n">
+        <v>186776000</v>
       </c>
       <c r="S2" t="n">
-        <v>1558998000</v>
+        <v>872498000</v>
       </c>
       <c r="T2" t="n">
-        <v>4940825000</v>
+        <v>1991351000</v>
       </c>
       <c r="U2" t="n">
-        <v>323381000</v>
+        <v>409846000</v>
       </c>
       <c r="V2" t="n">
-        <v>733984000</v>
+        <v>672246000</v>
       </c>
       <c r="W2" t="n">
-        <v>270998000</v>
+        <v>72867000</v>
       </c>
       <c r="X2" t="n">
-        <v>4193834000</v>
+        <v>184036000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126592000</v>
-      </c>
-      <c r="Z2" s="42" t="n">
-        <v>1431847377.808087</v>
-      </c>
-      <c r="AA2" s="45" t="n">
-        <v>191254869.3838254</v>
-      </c>
-      <c r="AB2" s="43" t="n">
-        <v>256866752.8080873</v>
+        <v>405400000</v>
+      </c>
+      <c r="Z2" s="32" t="n">
+        <v>248282298.7477639</v>
+      </c>
+      <c r="AA2" s="35" t="n">
+        <v>41088647.58497316</v>
+      </c>
+      <c r="AB2" s="33" t="n">
+        <v>19623053.66726297</v>
       </c>
       <c r="AC2" t="n">
-        <v>12265657000</v>
+        <v>2176334000</v>
       </c>
       <c r="AD2" t="n">
-        <v>23612616000</v>
+        <v>7022782000</v>
       </c>
       <c r="AE2" t="n">
-        <v>7110631000</v>
+        <v>908056000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8682542000</v>
+        <v>1777519000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1305820000</v>
+        <v>745375000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1849580000</v>
+        <v>456455000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1558903000</v>
+        <v>224012000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17777965000</v>
+        <v>3660664000</v>
       </c>
       <c r="AK2" t="n">
-        <v>3803764000</v>
+        <v>494777000</v>
       </c>
       <c r="AL2" t="n">
-        <v>36933879000</v>
+        <v>9157767000</v>
       </c>
       <c r="AM2" t="n">
-        <v>35297625000</v>
+        <v>6899466000</v>
       </c>
       <c r="AN2" t="n">
-        <v>3323714000</v>
+        <v>1551347000</v>
       </c>
       <c r="AO2" t="n">
-        <v>26417587000</v>
+        <v>6673246000</v>
       </c>
       <c r="AP2" t="n">
-        <v>2374244000</v>
+        <v>417430000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>534497000</v>
+        <v>73429000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107741000</v>
+        <v>34950125.12348719</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>37108000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37108000</v>
+        <v>15879386.1329982</v>
       </c>
       <c r="F2" t="n">
-        <v>8564000</v>
+        <v>2647721.721057799</v>
       </c>
       <c r="G2" t="n">
-        <v>279230000</v>
+        <v>219190486.9655911</v>
       </c>
       <c r="H2" t="n">
-        <v>196810000</v>
+        <v>130989311.1622008</v>
       </c>
       <c r="I2" t="n">
-        <v>108652000</v>
+        <v>91067143.60111834</v>
       </c>
       <c r="J2" t="n">
-        <v>216856000</v>
+        <v>149491618.3257261</v>
       </c>
       <c r="K2" t="n">
         <v>32691000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>117689761.5797172</v>
+        <v>52330449.0474035</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>153221238.4202828</v>
+        <v>78887028.46767974</v>
       </c>
       <c r="N2" t="n">
-        <v>379951000</v>
+        <v>258389466.3907983</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>50881486.8887314</v>
+        <v>45431888.96938329</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>102852513.1112686</v>
+        <v>53372078.049693</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>186776000</v>
+        <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>186776000</v>
+        <v>9324067.611922912</v>
       </c>
       <c r="S2" t="n">
-        <v>872498000</v>
+        <v>782257428.5536908</v>
       </c>
       <c r="T2" t="n">
-        <v>1991351000</v>
+        <v>895019224.2034465</v>
       </c>
       <c r="U2" t="n">
-        <v>409846000</v>
+        <v>251187345.8606823</v>
       </c>
       <c r="V2" t="n">
-        <v>672246000</v>
+        <v>510555943.5136327</v>
       </c>
       <c r="W2" t="n">
-        <v>72867000</v>
+        <v>91533396.58309555</v>
       </c>
       <c r="X2" t="n">
-        <v>184036000</v>
+        <v>119914314.7988103</v>
       </c>
       <c r="Y2" t="n">
-        <v>405400000</v>
+        <v>318943824.4181827</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>248282298.7477639</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>41088647.58497316</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>19623053.66726297</v>
+        <v>155148971.3774598</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176334000</v>
+        <v>1911777102.001142</v>
       </c>
       <c r="AD2" t="n">
-        <v>7022782000</v>
+        <v>1979605998.574992</v>
       </c>
       <c r="AE2" t="n">
         <v>908056000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1777519000</v>
+        <v>1295627754.428748</v>
       </c>
       <c r="AG2" t="n">
-        <v>745375000</v>
+        <v>1112680996.604725</v>
       </c>
       <c r="AH2" t="n">
         <v>456455000</v>
@@ -3777,25 +3777,25 @@
         <v>3660664000</v>
       </c>
       <c r="AK2" t="n">
-        <v>494777000</v>
+        <v>387215165.3111005</v>
       </c>
       <c r="AL2" t="n">
-        <v>9157767000</v>
+        <v>3709673401.195783</v>
       </c>
       <c r="AM2" t="n">
-        <v>6899466000</v>
+        <v>19572070000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1551347000</v>
+        <v>1087984468.974252</v>
       </c>
       <c r="AO2" t="n">
-        <v>6673246000</v>
+        <v>5029343937.052614</v>
       </c>
       <c r="AP2" t="n">
-        <v>417430000</v>
+        <v>307557331.3817266</v>
       </c>
       <c r="AQ2" t="n">
-        <v>73429000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34950125.12348719</v>
+        <v>23829381.27319095</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15879386.1329982</v>
+        <v>10826740.8259762</v>
       </c>
       <c r="F2" t="n">
-        <v>2647721.721057799</v>
+        <v>1805245.90894799</v>
       </c>
       <c r="G2" t="n">
-        <v>219190486.9655911</v>
+        <v>149446494.5949331</v>
       </c>
       <c r="H2" t="n">
-        <v>130989311.1622008</v>
+        <v>89309958.90195225</v>
       </c>
       <c r="I2" t="n">
-        <v>91067143.60111834</v>
+        <v>62090584.18715496</v>
       </c>
       <c r="J2" t="n">
-        <v>149491618.3257261</v>
+        <v>101925036.2521916</v>
       </c>
       <c r="K2" t="n">
         <v>32691000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>52330449.0474035</v>
+        <v>35679478.06029054</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>78887028.46767974</v>
+        <v>53786047.18076176</v>
       </c>
       <c r="N2" t="n">
-        <v>258389466.3907983</v>
+        <v>176172791.6523219</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>45431888.96938329</v>
+        <v>30975963.61636984</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>53372078.049693</v>
+        <v>36389672.21705164</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>9324067.611922912</v>
+        <v>6357252.266092979</v>
       </c>
       <c r="S2" t="n">
-        <v>782257428.5536908</v>
+        <v>533351753.4752657</v>
       </c>
       <c r="T2" t="n">
-        <v>895019224.2034465</v>
+        <v>610233991.0092859</v>
       </c>
       <c r="U2" t="n">
-        <v>251187345.8606823</v>
+        <v>171262306.3398595</v>
       </c>
       <c r="V2" t="n">
-        <v>510555943.5136327</v>
+        <v>348102680.4995368</v>
       </c>
       <c r="W2" t="n">
-        <v>91533396.58309555</v>
+        <v>62408480.61922897</v>
       </c>
       <c r="X2" t="n">
-        <v>119914314.7988103</v>
+        <v>81758904.07711323</v>
       </c>
       <c r="Y2" t="n">
-        <v>318943824.4181827</v>
+        <v>217459421.6740882</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>248282298.7477639</v>
+        <v>247250246.4370546</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>0</v>
+        <v>42202268.40855107</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>155148971.3774598</v>
+        <v>154504052.8503563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1911777102.001142</v>
+        <v>1303470740.433098</v>
       </c>
       <c r="AD2" t="n">
-        <v>1979605998.574992</v>
+        <v>1349717231.170607</v>
       </c>
       <c r="AE2" t="n">
         <v>908056000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1295627754.428748</v>
+        <v>883373310.9488323</v>
       </c>
       <c r="AG2" t="n">
-        <v>1112680996.604725</v>
+        <v>758638191.1322488</v>
       </c>
       <c r="AH2" t="n">
         <v>456455000</v>
@@ -3777,22 +3777,22 @@
         <v>3660664000</v>
       </c>
       <c r="AK2" t="n">
-        <v>387215165.3111005</v>
+        <v>264007575.8343733</v>
       </c>
       <c r="AL2" t="n">
-        <v>3709673401.195783</v>
+        <v>2529296291.895198</v>
       </c>
       <c r="AM2" t="n">
         <v>19572070000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1087984468.974252</v>
+        <v>1551347000</v>
       </c>
       <c r="AO2" t="n">
-        <v>5029343937.052614</v>
+        <v>6673246000</v>
       </c>
       <c r="AP2" t="n">
-        <v>307557331.3817266</v>
+        <v>209695984.9776083</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,7 +3677,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23829381.27319095</v>
+        <v>43465183.8603915</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,67 +3686,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10826740.8259762</v>
+        <v>19748153.55945862</v>
       </c>
       <c r="F2" t="n">
-        <v>1805245.90894799</v>
+        <v>3292798.266395643</v>
       </c>
       <c r="G2" t="n">
-        <v>149446494.5949331</v>
+        <v>272592867.1999438</v>
       </c>
       <c r="H2" t="n">
-        <v>89309958.90195225</v>
+        <v>162902835.7779743</v>
       </c>
       <c r="I2" t="n">
-        <v>62090584.18715496</v>
+        <v>113254248.0542726</v>
       </c>
       <c r="J2" t="n">
-        <v>101925036.2521916</v>
+        <v>185912944.6077028</v>
       </c>
       <c r="K2" t="n">
         <v>32691000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>35679478.06029054</v>
+        <v>65079955.5453865</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>53786047.18076176</v>
+        <v>98106635.79694565</v>
       </c>
       <c r="N2" t="n">
-        <v>176172791.6523219</v>
+        <v>321342073.1566158</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>30975963.61636984</v>
+        <v>56500667.74302033</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>36389672.21705164</v>
+        <v>66375361.38267216</v>
       </c>
       <c r="Q2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>6357252.266092979</v>
+        <v>11595732.8234742</v>
       </c>
       <c r="S2" t="n">
-        <v>533351753.4752657</v>
+        <v>972842381.4824601</v>
       </c>
       <c r="T2" t="n">
-        <v>610233991.0092859</v>
+        <v>1113076848.82778</v>
       </c>
       <c r="U2" t="n">
-        <v>171262306.3398595</v>
+        <v>312385267.0816693</v>
       </c>
       <c r="V2" t="n">
-        <v>348102680.4995368</v>
+        <v>634945021.7253336</v>
       </c>
       <c r="W2" t="n">
-        <v>62408480.61922897</v>
+        <v>113834096.3814386</v>
       </c>
       <c r="X2" t="n">
-        <v>81758904.07711323</v>
+        <v>149129587.4280152</v>
       </c>
       <c r="Y2" t="n">
-        <v>217459421.6740882</v>
+        <v>396649566.2173339</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>247250246.4370546</v>
@@ -3753,19 +3758,19 @@
         <v>154504052.8503563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1303470740.433098</v>
+        <v>2377552095.878593</v>
       </c>
       <c r="AD2" t="n">
-        <v>1349717231.170607</v>
+        <v>2461906456.562946</v>
       </c>
       <c r="AE2" t="n">
         <v>908056000</v>
       </c>
       <c r="AF2" t="n">
-        <v>883373310.9488323</v>
+        <v>1611287466.408155</v>
       </c>
       <c r="AG2" t="n">
-        <v>758638191.1322488</v>
+        <v>1383768553.746527</v>
       </c>
       <c r="AH2" t="n">
         <v>456455000</v>
@@ -3777,13 +3782,13 @@
         <v>3660664000</v>
       </c>
       <c r="AK2" t="n">
-        <v>264007575.8343733</v>
+        <v>481554165.9525711</v>
       </c>
       <c r="AL2" t="n">
-        <v>2529296291.895198</v>
+        <v>4613478088.426668</v>
       </c>
       <c r="AM2" t="n">
-        <v>19572070000</v>
+        <v>6899466000</v>
       </c>
       <c r="AN2" t="n">
         <v>1551347000</v>
@@ -3792,7 +3797,7 @@
         <v>6673246000</v>
       </c>
       <c r="AP2" t="n">
-        <v>209695984.9776083</v>
+        <v>382488929.8360341</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
